--- a/KZN_south_africa/param_files/hiv_param_gen/hiv_input_gen_data_1980_2018.xlsx
+++ b/KZN_south_africa/param_files/hiv_param_gen/hiv_input_gen_data_1980_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/hiv_param_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/KZN_south_africa/param_files/hiv_param_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E970C7C-75F4-DA40-B17E-BAD5C6876E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2550673-0BEC-2547-BA63-ECC58376F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12100" yWindow="720" windowWidth="23740" windowHeight="19840" xr2:uid="{245E17E2-FF17-6349-AC56-58836A51DAF9}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4656BECB-10C2-3045-9B70-7753669080C4}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G21:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2029,7 @@
         <v>3.8894010932096899E-2</v>
       </c>
       <c r="O33" s="14">
-        <f t="shared" si="7"/>
+        <f>IF(A33&lt;2011,0,IF(A33&lt;2016,F33/G33,1))</f>
         <v>0.47742868490789064</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>6.96859861521512E-2</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="7"/>
+        <f>IF(A37&lt;2011,0,IF(A37&lt;2016,F37/G37,1))</f>
         <v>0.45135265205831121</v>
       </c>
     </row>
